--- a/TemperatureData/St.MikesOxbow/1104_2024.xlsx
+++ b/TemperatureData/St.MikesOxbow/1104_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/St.MikesOxbow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.MikesOxbow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADEC1CD9-A997-4FD9-BC05-D8A1327FF7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A39471-99BE-4046-8482-8D6D04FC7368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{42CEC6F0-95F1-420C-80BE-3019F53059DD}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{42CEC6F0-95F1-420C-80BE-3019F53059DD}"/>
   </bookViews>
   <sheets>
     <sheet name="1104_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plot Title: St Mikes 4</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422127)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Complex ID: 11</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>#Logger was retreived on07/302024 at 9:42</t>
+  </si>
+  <si>
+    <t>#All data after retrieval date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -927,9 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26527F6-C601-44AD-9AEB-F7141457CF5E}">
-  <dimension ref="A1:H6452"/>
+  <dimension ref="A1:H6425"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6411" workbookViewId="0">
+      <selection activeCell="B6436" sqref="B6436"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -90889,378 +90891,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6426">
-        <v>6424</v>
-      </c>
-      <c r="B6426" s="1">
-        <v>45503.40625</v>
-      </c>
-      <c r="C6426">
-        <v>80.028999999999996</v>
-      </c>
-      <c r="D6426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6427">
-        <v>6425</v>
-      </c>
-      <c r="B6427" s="1">
-        <v>45503.416666666664</v>
-      </c>
-      <c r="C6427">
-        <v>76.180999999999997</v>
-      </c>
-      <c r="D6427">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6428">
-        <v>6426</v>
-      </c>
-      <c r="B6428" s="1">
-        <v>45503.427083333336</v>
-      </c>
-      <c r="C6428">
-        <v>76.353999999999999</v>
-      </c>
-      <c r="D6428">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6429">
-        <v>6427</v>
-      </c>
-      <c r="B6429" s="1">
-        <v>45503.4375</v>
-      </c>
-      <c r="C6429">
-        <v>79.325999999999993</v>
-      </c>
-      <c r="D6429">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6430">
-        <v>6428</v>
-      </c>
-      <c r="B6430" s="1">
-        <v>45503.447916666664</v>
-      </c>
-      <c r="C6430">
-        <v>77.748999999999995</v>
-      </c>
-      <c r="D6430">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6431">
-        <v>6429</v>
-      </c>
-      <c r="B6431" s="1">
-        <v>45503.458333333336</v>
-      </c>
-      <c r="C6431">
-        <v>78.623999999999995</v>
-      </c>
-      <c r="D6431">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6432">
-        <v>6430</v>
-      </c>
-      <c r="B6432" s="1">
-        <v>45503.46875</v>
-      </c>
-      <c r="C6432">
-        <v>78.448999999999998</v>
-      </c>
-      <c r="D6432">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6433">
-        <v>6431</v>
-      </c>
-      <c r="B6433" s="1">
-        <v>45503.479166666664</v>
-      </c>
-      <c r="C6433">
-        <v>76.876000000000005</v>
-      </c>
-      <c r="D6433">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6434">
-        <v>6432</v>
-      </c>
-      <c r="B6434" s="1">
-        <v>45503.489583333336</v>
-      </c>
-      <c r="C6434">
-        <v>77.923000000000002</v>
-      </c>
-      <c r="D6434">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6435">
-        <v>6433</v>
-      </c>
-      <c r="B6435" s="1">
-        <v>45503.5</v>
-      </c>
-      <c r="C6435">
-        <v>79.677999999999997</v>
-      </c>
-      <c r="D6435">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6436">
-        <v>6434</v>
-      </c>
-      <c r="B6436" s="1">
-        <v>45503.510416666664</v>
-      </c>
-      <c r="C6436">
-        <v>85.734999999999999</v>
-      </c>
-      <c r="D6436">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6437">
-        <v>6435</v>
-      </c>
-      <c r="B6437" s="1">
-        <v>45503.520833333336</v>
-      </c>
-      <c r="C6437">
-        <v>87.367999999999995</v>
-      </c>
-      <c r="D6437">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6438">
-        <v>6436</v>
-      </c>
-      <c r="B6438" s="1">
-        <v>45503.53125</v>
-      </c>
-      <c r="C6438">
-        <v>85.915000000000006</v>
-      </c>
-      <c r="D6438">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6439">
-        <v>6437</v>
-      </c>
-      <c r="B6439" s="1">
-        <v>45503.541666666664</v>
-      </c>
-      <c r="C6439">
-        <v>88.832999999999998</v>
-      </c>
-      <c r="D6439">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6440">
-        <v>6438</v>
-      </c>
-      <c r="B6440" s="1">
-        <v>45503.552083333336</v>
-      </c>
-      <c r="C6440">
-        <v>83.399000000000001</v>
-      </c>
-      <c r="D6440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6441">
-        <v>6439</v>
-      </c>
-      <c r="B6441" s="1">
-        <v>45503.5625</v>
-      </c>
-      <c r="C6441">
-        <v>85.554000000000002</v>
-      </c>
-      <c r="D6441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6442">
-        <v>6440</v>
-      </c>
-      <c r="B6442" s="1">
-        <v>45503.572916666664</v>
-      </c>
-      <c r="C6442">
-        <v>87.915000000000006</v>
-      </c>
-      <c r="D6442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6443">
-        <v>6441</v>
-      </c>
-      <c r="B6443" s="1">
-        <v>45503.583333333336</v>
-      </c>
-      <c r="C6443">
-        <v>90.495000000000005</v>
-      </c>
-      <c r="D6443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6444">
-        <v>6442</v>
-      </c>
-      <c r="B6444" s="1">
-        <v>45503.59375</v>
-      </c>
-      <c r="C6444">
-        <v>93.114999999999995</v>
-      </c>
-      <c r="D6444">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6445">
-        <v>6443</v>
-      </c>
-      <c r="B6445" s="1">
-        <v>45503.604166666664</v>
-      </c>
-      <c r="C6445">
-        <v>95.206999999999994</v>
-      </c>
-      <c r="D6445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6446">
-        <v>6444</v>
-      </c>
-      <c r="B6446" s="1">
-        <v>45503.614583333336</v>
-      </c>
-      <c r="C6446">
-        <v>97.137</v>
-      </c>
-      <c r="D6446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6447">
-        <v>6445</v>
-      </c>
-      <c r="B6447" s="1">
-        <v>45503.625</v>
-      </c>
-      <c r="C6447">
-        <v>98.503</v>
-      </c>
-      <c r="D6447">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6448">
-        <v>6446</v>
-      </c>
-      <c r="B6448" s="1">
-        <v>45503.635416666664</v>
-      </c>
-      <c r="C6448">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="D6448">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6449" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6449">
-        <v>6447</v>
-      </c>
-      <c r="B6449" s="1">
-        <v>45503.645833333336</v>
-      </c>
-      <c r="C6449">
-        <v>69.622</v>
-      </c>
-      <c r="D6449">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6450">
-        <v>6448</v>
-      </c>
-      <c r="B6450" s="1">
-        <v>45503.649293981478</v>
-      </c>
-      <c r="E6450" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6451">
-        <v>6449</v>
-      </c>
-      <c r="B6451" s="1">
-        <v>45503.650462962964</v>
-      </c>
-      <c r="F6451" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6452">
-        <v>6450</v>
-      </c>
-      <c r="B6452" s="1">
-        <v>45503.650682870371</v>
-      </c>
-      <c r="G6452" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6452" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -91268,36 +90898,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA0C327-741E-408B-AB7A-2877B745289D}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -91534,15 +91169,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -91553,14 +91179,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{278168E6-B6FF-44D3-BF32-C5400E2848A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{278168E6-B6FF-44D3-BF32-C5400E2848A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70891325-A405-4ED9-A207-010F99F50644}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D6FA82-8C85-42AD-876A-AADCF47F9E03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D6FA82-8C85-42AD-876A-AADCF47F9E03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70891325-A405-4ED9-A207-010F99F50644}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>